--- a/test_sampling_SD/networks/Circle/models_config_Poisson2D_fixed_carre.xlsx
+++ b/test_sampling_SD/networks/Circle/models_config_Poisson2D_fixed_carre.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Configuration</t>
   </si>
@@ -77,39 +77,6 @@
   </si>
   <si>
     <t>PhiFEM</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>[20, 20, 20, 20]</t>
-  </si>
-  <si>
-    <t>sine</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -180,15 +147,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -198,87 +162,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1371603</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>731521</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="model_1_exact_bc.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9763125" y="571500"/>
-          <a:ext cx="1371603" cy="731521"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>914402</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>685801</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="corr_phifem_1_exact_bc.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14487525" y="571500"/>
-          <a:ext cx="914402" cy="685801"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -566,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -698,50 +581,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="60" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:A3"/>
@@ -754,6 +593,5 @@
     <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>